--- a/diseño base de datos/datos prueba.xlsx
+++ b/diseño base de datos/datos prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlos/proyectos/control-inventario/diseño base de datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\control-inventario\diseño base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F779B-68D2-514E-B2AB-5514AFC299B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6207A60-2B6C-4A7D-B88A-E3EF64F391FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" activeTab="4" xr2:uid="{1494D4AF-B203-4041-852B-A6A8CEFA8424}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{1494D4AF-B203-4041-852B-A6A8CEFA8424}"/>
   </bookViews>
   <sheets>
     <sheet name="empresas" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="355">
   <si>
     <t>username</t>
   </si>
@@ -410,51 +410,6 @@
     <t>juanjose.mendez@1.com</t>
   </si>
   <si>
-    <t>jLhG5-tBubzu9lRsdfZKu5qLxagazdPF</t>
-  </si>
-  <si>
-    <t>INwhox5vPTuOCUyfCkwfKll6W_sLruPt</t>
-  </si>
-  <si>
-    <t>YuGKs8wefCiFtSdudxzt8wGzbM3T_iK8</t>
-  </si>
-  <si>
-    <t>m2tE5fEIPbqHBAtK01IfkyH_7d3pEY1B</t>
-  </si>
-  <si>
-    <t>pxZO6feoOk4mdJdIzsLjNALVq1V2arag</t>
-  </si>
-  <si>
-    <t>8vNuVi5AWlGqn42pECjprXHKmj8tKLeC</t>
-  </si>
-  <si>
-    <t>RKGozHpWGhZgtQ2f-zPVqKKgOH11KkaS</t>
-  </si>
-  <si>
-    <t>TGELSP_-kop3yazy-LTFBkOVdEulVc9D</t>
-  </si>
-  <si>
-    <t>6iuZPUcuCBRrCh080efP8EPSUbF3X9nQ</t>
-  </si>
-  <si>
-    <t>ua2yA3ucWMnXL3yiK3ExJ0HpBTAJXcLA</t>
-  </si>
-  <si>
-    <t>JUNWlpNPichMCA4QO2SQDiuxymWGMMeQ</t>
-  </si>
-  <si>
-    <t>uXdq2NGEgxVHtiMSA5Bmh_eIaFcC_qRU</t>
-  </si>
-  <si>
-    <t>9ZaWIBpYFJoUunZ_h0Ou8O2rVEZAVEBW</t>
-  </si>
-  <si>
-    <t>8sI9wW9cjQHIxV7Hx6eYBLSLQ-2r3dzW</t>
-  </si>
-  <si>
-    <t>s4t9MJ-_fWpNvORAViEcm1ZHdL_C4sqS</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1050,13 +1005,103 @@
   </si>
   <si>
     <t>jose@1.com</t>
+  </si>
+  <si>
+    <t>_8qgDXiqY-SCmSvYzcnthsfU5BO0wU04</t>
+  </si>
+  <si>
+    <t>79AINscZsZXwr1drBPltHF6EIFC6Bja6</t>
+  </si>
+  <si>
+    <t>wI5yOlHqNVb1q4SD21UmB_YJuJx9WLWI</t>
+  </si>
+  <si>
+    <t>wvCr24OCqckZiZWY47Wbfkv14Ilwmw1P</t>
+  </si>
+  <si>
+    <t>koCzocLzS-ZnSDgrSMLtIy-W-cepn7Y8</t>
+  </si>
+  <si>
+    <t>O0CfERb9jta71sEqMhyK_aT200eALaVk</t>
+  </si>
+  <si>
+    <t>J2kQQT-g3wqhRvXOBC1EMivwkXOjbP8_</t>
+  </si>
+  <si>
+    <t>Ri4YeKrLSEm3eLZs_o_wzeDFiCzGqhCI</t>
+  </si>
+  <si>
+    <t>dqGh9l5aW1868QNGxfGwQLac2QmkY9t5</t>
+  </si>
+  <si>
+    <t>kGp2iAIkZYFGBp8Cv4rTD5cgFffMqdl9</t>
+  </si>
+  <si>
+    <t>zCeyQ2XqRx9K4vrxjvJTDKvKVsErhaCd</t>
+  </si>
+  <si>
+    <t>624RNsBkJlaLvx1_Jddl2JUAK3vBSD-K</t>
+  </si>
+  <si>
+    <t>iqUb2pLTFYFF0ECXuNO6ztUoDzu1zdui</t>
+  </si>
+  <si>
+    <t>jiz8CIRpEzhAsrfEUZGkzAjOHRePqc6Z</t>
+  </si>
+  <si>
+    <t>pVa7qpEoUAGWGUZ2q_lJzTmbiTgYIJPC</t>
+  </si>
+  <si>
+    <t>E4iaE1r8PSy4sTF-ptX84XiyWOu9qLZQ</t>
+  </si>
+  <si>
+    <t>esywKHiVrzQE6YrxQYttlXlYNwy1Nbj8</t>
+  </si>
+  <si>
+    <t>MmNOLDvZbKinXXD-s4a-5NTxECAD0uDg</t>
+  </si>
+  <si>
+    <t>T4FXGkZ7Y0EH2ZD0qsa_52oXRyhlak7g</t>
+  </si>
+  <si>
+    <t>ErnQZwq8Zp92qaOqJ_AGNfofZmm4rq_m</t>
+  </si>
+  <si>
+    <t>yqRClnGEwKKoupwtaahSNERf5MJrWyEN</t>
+  </si>
+  <si>
+    <t>wp52kogJDUXX67tIMPnCy8VEqtBJc303</t>
+  </si>
+  <si>
+    <t>4OHVjGk9mbp9GPkPGvsvVPasePZicypr</t>
+  </si>
+  <si>
+    <t>dm-iYjCENdUHJ_A03zlLRkk7NiiuU5iR</t>
+  </si>
+  <si>
+    <t>9VWxfl26_YR8Mw0c3DERVbd-VbwWcDt1</t>
+  </si>
+  <si>
+    <t>2ypjN1csYk6cHMGgqcR3rajlytBkpLgF</t>
+  </si>
+  <si>
+    <t>GGrkSWuHjk9ZKCisXRlfTg_9S1z8Tr_j</t>
+  </si>
+  <si>
+    <t>029TuyWiTV-WquX0pCM56uCr6xLYT6vx</t>
+  </si>
+  <si>
+    <t>NqrgAYyoNBx-lcn5nliZxf-emmK-eJXF</t>
+  </si>
+  <si>
+    <t>ATrLEfhH2wGa28VWt5z8IK7BLuR7hOiK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1523,73 +1568,73 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="D10" s="12"/>
     </row>
   </sheetData>
@@ -1604,26 +1649,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C976B1-BB54-054A-ABB8-674DB11D6DC3}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="12.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="2"/>
+    <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="55.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="55.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1652,9 +1697,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1675,13 +1720,13 @@
         <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1703,11 +1748,14 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>349</v>
+      </c>
       <c r="I3" s="12" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1730,13 +1778,13 @@
         <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1758,11 +1806,14 @@
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="I5" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>96</v>
       </c>
@@ -1785,13 +1836,13 @@
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1813,11 +1864,14 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>351</v>
+      </c>
       <c r="I7" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1840,13 +1894,13 @@
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>129</v>
+        <v>328</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1868,11 +1922,14 @@
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="I9" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1895,13 +1952,13 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1923,11 +1980,14 @@
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="I11" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1950,13 +2010,13 @@
         <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1978,11 +2038,14 @@
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="I13" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2005,13 +2068,13 @@
         <v>15</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -2033,11 +2096,14 @@
       <c r="G15" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -2060,13 +2126,13 @@
         <v>15</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2088,11 +2154,14 @@
       <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H17" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="I17" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2115,13 +2184,13 @@
         <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2143,11 +2212,14 @@
       <c r="G19" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H19" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="I19" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -2170,13 +2242,13 @@
         <v>15</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2198,11 +2270,14 @@
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H21" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="I21" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -2225,13 +2300,13 @@
         <v>15</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>136</v>
+        <v>335</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2253,11 +2328,14 @@
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H23" s="3" t="s">
+        <v>344</v>
+      </c>
       <c r="I23" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2280,13 +2358,13 @@
         <v>15</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>137</v>
+        <v>336</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -2308,11 +2386,14 @@
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H25" s="3" t="s">
+        <v>343</v>
+      </c>
       <c r="I25" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -2335,13 +2416,13 @@
         <v>15</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2363,11 +2444,14 @@
       <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H27" s="3" t="s">
+        <v>342</v>
+      </c>
       <c r="I27" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2390,13 +2474,13 @@
         <v>15</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>139</v>
+        <v>338</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -2418,11 +2502,14 @@
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H29" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="I29" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2445,13 +2532,13 @@
         <v>15</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -2473,603 +2560,155 @@
       <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H31" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="I31" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="H32" s="3"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="H34" s="3"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="H36" s="3"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="H38" s="3"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="H40" s="3"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="H42" s="3"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="H44" s="3"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="H46" s="3"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="H48" s="3"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="H50" s="3"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="H52" s="3"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="H54" s="3"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="B55" s="1"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="H56" s="3"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="H58" s="3"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
+    <row r="60" spans="1:9">
       <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="6"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="6"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="6"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="6"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="6"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="6"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="6"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="6"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="6"/>
-      <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="6"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="6"/>
-      <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="6"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H106" s="3"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H108" s="3"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H110" s="3"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H112" s="3"/>
-    </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H114" s="3"/>
-    </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H116" s="3"/>
-    </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H118" s="3"/>
-    </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H120" s="3"/>
-    </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H122" s="3"/>
-    </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H124" s="3"/>
-    </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H126" s="3"/>
-    </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H128" s="3"/>
-    </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H130" s="3"/>
-    </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H132" s="3"/>
-    </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H134" s="3"/>
-    </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H136" s="3"/>
-    </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H138" s="3"/>
-    </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H140" s="3"/>
-    </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H142" s="3"/>
-    </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H144" s="3"/>
-    </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H146" s="3"/>
-    </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H148" s="3"/>
-    </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H150" s="3"/>
-    </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H152" s="3"/>
-    </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H154" s="3"/>
-    </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H156" s="3"/>
-    </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H158" s="3"/>
-    </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H160" s="3"/>
-    </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H162" s="3"/>
-    </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H164" s="3"/>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H166" s="3"/>
-    </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H168" s="3"/>
-    </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H170" s="3"/>
-    </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H172" s="3"/>
-    </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H174" s="3"/>
-    </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H176" s="3"/>
-    </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H178" s="3"/>
-    </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H180" s="3"/>
-    </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H182" s="3"/>
-    </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H184" s="3"/>
-    </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H186" s="3"/>
-    </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H188" s="3"/>
-    </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H190" s="3"/>
-    </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H192" s="3"/>
-    </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H194" s="3"/>
-    </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H196" s="3"/>
-    </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H198" s="3"/>
-    </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H200" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3117,26 +2756,26 @@
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="8"/>
+    <col min="2" max="2" width="19.375" style="8" customWidth="1"/>
     <col min="3" max="3" width="22" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="8"/>
+    <col min="4" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -3145,21 +2784,21 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -3168,21 +2807,21 @@
         <v>672345678</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -3191,21 +2830,21 @@
         <v>610987654</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -3214,21 +2853,21 @@
         <v>666123456</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -3237,21 +2876,21 @@
         <v>655789012</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -3260,21 +2899,21 @@
         <v>688234567</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -3283,21 +2922,21 @@
         <v>677890123</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -3306,21 +2945,21 @@
         <v>699345678</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -3329,21 +2968,21 @@
         <v>644567890</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -3352,21 +2991,21 @@
         <v>622678901</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -3375,21 +3014,21 @@
         <v>677890123</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E12" s="8">
         <v>2</v>
@@ -3398,21 +3037,21 @@
         <v>655432109</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E13" s="8">
         <v>2</v>
@@ -3421,21 +3060,21 @@
         <v>633210987</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E14" s="8">
         <v>2</v>
@@ -3444,21 +3083,21 @@
         <v>699876543</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E15" s="8">
         <v>2</v>
@@ -3467,21 +3106,21 @@
         <v>677890123</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E16" s="8">
         <v>2</v>
@@ -3490,21 +3129,21 @@
         <v>622345678</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
@@ -3513,21 +3152,21 @@
         <v>655678901</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E18" s="8">
         <v>2</v>
@@ -3536,21 +3175,21 @@
         <v>644123456</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E19" s="8">
         <v>2</v>
@@ -3559,21 +3198,21 @@
         <v>611234567</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E20" s="8">
         <v>2</v>
@@ -3582,21 +3221,21 @@
         <v>688789012</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E21" s="8">
         <v>2</v>
@@ -3605,21 +3244,21 @@
         <v>677345678</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E22" s="8">
         <v>3</v>
@@ -3628,21 +3267,21 @@
         <v>633987654</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E23" s="8">
         <v>3</v>
@@ -3651,21 +3290,21 @@
         <v>699567890</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E24" s="8">
         <v>3</v>
@@ -3674,21 +3313,21 @@
         <v>655678901</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E25" s="8">
         <v>3</v>
@@ -3697,21 +3336,21 @@
         <v>688345678</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E26" s="8">
         <v>3</v>
@@ -3720,21 +3359,21 @@
         <v>611234567</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E27" s="8">
         <v>3</v>
@@ -3743,21 +3382,21 @@
         <v>633987654</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E28" s="8">
         <v>3</v>
@@ -3766,21 +3405,21 @@
         <v>655567890</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E29" s="8">
         <v>3</v>
@@ -3789,21 +3428,21 @@
         <v>699678901</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="E30" s="8">
         <v>3</v>
@@ -3812,21 +3451,21 @@
         <v>677345678</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E31" s="8">
         <v>3</v>
@@ -3835,350 +3474,350 @@
         <v>688987654</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="C32" s="9"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="C33" s="9"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="C34" s="9"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="C35" s="9"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="C36" s="9"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="C37" s="9"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="C38" s="9"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="C39" s="9"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="C40" s="9"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7">
       <c r="C41" s="9"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7">
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7">
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7">
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7">
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7">
       <c r="B46" s="7"/>
       <c r="C46" s="9"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7">
       <c r="B47" s="7"/>
       <c r="C47" s="9"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7">
       <c r="B48" s="7"/>
       <c r="C48" s="9"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7">
       <c r="B49" s="7"/>
       <c r="C49" s="9"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7">
       <c r="B50" s="7"/>
       <c r="C50" s="9"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7">
       <c r="B51" s="7"/>
       <c r="C51" s="9"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7">
       <c r="B52" s="7"/>
       <c r="C52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7">
       <c r="B53" s="7"/>
       <c r="C53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7">
       <c r="B54" s="7"/>
       <c r="C54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7">
       <c r="B55" s="7"/>
       <c r="C55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7">
       <c r="B56" s="7"/>
       <c r="C56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7">
       <c r="B57" s="7"/>
       <c r="C57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7">
       <c r="B58" s="7"/>
       <c r="C58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7">
       <c r="B59" s="7"/>
       <c r="C59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7">
       <c r="B60" s="7"/>
       <c r="C60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7">
       <c r="B61" s="7"/>
       <c r="C61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7">
       <c r="B62" s="7"/>
       <c r="C62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7">
       <c r="B63" s="7"/>
       <c r="C63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7">
       <c r="B64" s="7"/>
       <c r="C64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7">
       <c r="B65" s="7"/>
       <c r="C65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7">
       <c r="B66" s="7"/>
       <c r="C66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7">
       <c r="B67" s="7"/>
       <c r="C67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7">
       <c r="B68" s="7"/>
       <c r="C68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7">
       <c r="B69" s="7"/>
       <c r="C69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7">
       <c r="B70" s="7"/>
       <c r="C70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7">
       <c r="B71" s="7"/>
       <c r="C71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7">
       <c r="B72" s="7"/>
       <c r="C72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7">
       <c r="B73" s="7"/>
       <c r="C73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7">
       <c r="B74" s="7"/>
       <c r="C74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7">
       <c r="B75" s="7"/>
       <c r="C75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7">
       <c r="B76" s="7"/>
       <c r="C76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7">
       <c r="B77" s="7"/>
       <c r="C77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7">
       <c r="B78" s="7"/>
       <c r="C78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7">
       <c r="B79" s="7"/>
       <c r="C79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7">
       <c r="B80" s="7"/>
       <c r="C80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7">
       <c r="B81" s="7"/>
       <c r="C81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7">
       <c r="B82" s="7"/>
       <c r="C82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7">
       <c r="B83" s="7"/>
       <c r="C83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7">
       <c r="B84" s="7"/>
       <c r="C84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7">
       <c r="B85" s="7"/>
       <c r="C85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7">
       <c r="B86" s="7"/>
       <c r="C86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7">
       <c r="B87" s="7"/>
       <c r="C87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7">
       <c r="B88" s="7"/>
       <c r="C88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7">
       <c r="B89" s="7"/>
       <c r="C89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7">
       <c r="B90" s="7"/>
       <c r="C90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7">
       <c r="B91" s="7"/>
       <c r="C91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7">
       <c r="B92" s="7"/>
       <c r="C92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7">
       <c r="B93" s="7"/>
       <c r="C93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7">
       <c r="B94" s="7"/>
       <c r="C94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7">
       <c r="B95" s="7"/>
       <c r="C95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7">
       <c r="B96" s="7"/>
       <c r="C96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7">
       <c r="B97" s="7"/>
       <c r="C97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7">
       <c r="B98" s="7"/>
       <c r="C98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7">
       <c r="B99" s="7"/>
       <c r="C99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7">
       <c r="B100" s="7"/>
       <c r="C100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7">
       <c r="B101" s="7"/>
       <c r="C101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7">
       <c r="C102" s="9"/>
       <c r="G102" s="9"/>
     </row>
@@ -4196,478 +3835,478 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B20" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B22" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B23" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B24" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B25" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B26" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B27" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B28" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B29" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B30" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="8" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B31" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="9"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="9"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="9"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="9"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="9"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="9"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="9"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="9"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="9"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="9"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="9"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="9"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="8"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="9"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="8"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="9"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="8"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="9"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="9"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="8"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="9"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="8"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="9"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="8"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="9"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="9"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="9"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="9"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="9"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="9"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="8"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="8"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="9"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="8"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="9"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="8"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="9"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="9"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="9"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="9"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="9"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="9"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="8"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="8"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="9"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="8"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="9"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="8"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="9"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="9"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="9"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="9"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="9"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="9"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="8"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="8"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="9"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1">
       <c r="A101" s="8"/>
     </row>
   </sheetData>
@@ -4679,58 +4318,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15622DE-F2AC-364B-A82F-93CC5BE50A34}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.875" style="13"/>
     <col min="2" max="2" width="49.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="13"/>
+    <col min="3" max="3" width="20.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E2" s="15">
         <v>612345678</v>
@@ -4739,21 +4378,21 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E3" s="15">
         <v>655432198</v>
@@ -4762,21 +4401,21 @@
         <v>1</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E4" s="15">
         <v>677894561</v>
@@ -4785,21 +4424,21 @@
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E5" s="15">
         <v>634567890</v>
@@ -4808,21 +4447,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E6" s="15">
         <v>689012345</v>
@@ -4831,21 +4470,21 @@
         <v>1</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E7" s="15">
         <v>622345678</v>
@@ -4854,21 +4493,21 @@
         <v>2</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E8" s="15">
         <v>666789012</v>
@@ -4877,21 +4516,21 @@
         <v>2</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E9" s="15">
         <v>677654321</v>
@@ -4900,21 +4539,21 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E10" s="15">
         <v>655789012</v>
@@ -4923,21 +4562,21 @@
         <v>2</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E11" s="15">
         <v>633456789</v>
@@ -4946,21 +4585,21 @@
         <v>2</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E12" s="15">
         <v>688901234</v>
@@ -4969,21 +4608,21 @@
         <v>3</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E13" s="15">
         <v>611234567</v>
@@ -4992,21 +4631,21 @@
         <v>3</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E14" s="15">
         <v>655789012</v>
@@ -5015,21 +4654,21 @@
         <v>3</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E15" s="15">
         <v>677654321</v>
@@ -5038,3264 +4677,3264 @@
         <v>3</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25">
       <c r="B16" s="14"/>
       <c r="C16"/>
       <c r="E16" s="15"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="20.25">
       <c r="B17" s="14"/>
       <c r="C17"/>
       <c r="E17" s="15"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="20.25">
       <c r="B18" s="14"/>
       <c r="C18"/>
       <c r="E18" s="15"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="20.25">
       <c r="B19" s="14"/>
       <c r="C19"/>
       <c r="E19" s="15"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="20.25">
       <c r="B20" s="14"/>
       <c r="C20"/>
       <c r="E20" s="15"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="20.25">
       <c r="B21" s="14"/>
       <c r="C21"/>
       <c r="E21" s="15"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="20.25">
       <c r="B22" s="14"/>
       <c r="C22"/>
       <c r="E22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="20.25">
       <c r="B23" s="14"/>
       <c r="C23"/>
       <c r="E23" s="15"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="20.25">
       <c r="B24" s="14"/>
       <c r="C24"/>
       <c r="E24" s="15"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="20.25">
       <c r="B25" s="14"/>
       <c r="C25"/>
       <c r="E25" s="15"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="20.25">
       <c r="B26" s="14"/>
       <c r="C26"/>
       <c r="E26" s="15"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="20.25">
       <c r="B27" s="14"/>
       <c r="C27"/>
       <c r="E27" s="15"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" ht="20.25">
       <c r="B28" s="14"/>
       <c r="C28"/>
       <c r="E28" s="15"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" ht="20.25">
       <c r="B29" s="14"/>
       <c r="C29"/>
       <c r="E29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="20.25">
       <c r="B30" s="14"/>
       <c r="C30"/>
       <c r="E30" s="15"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="20.25">
       <c r="B31" s="14"/>
       <c r="C31"/>
       <c r="E31" s="15"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="20.25">
       <c r="B32" s="14"/>
       <c r="C32"/>
       <c r="E32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="20.25">
       <c r="B33" s="14"/>
       <c r="C33"/>
       <c r="E33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="20.25">
       <c r="B34" s="14"/>
       <c r="C34"/>
       <c r="E34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="20.25">
       <c r="B35" s="14"/>
       <c r="C35"/>
       <c r="E35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="20.25">
       <c r="B36" s="14"/>
       <c r="C36"/>
       <c r="E36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="20.25">
       <c r="B37" s="14"/>
       <c r="C37"/>
       <c r="E37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="20.25">
       <c r="B38" s="14"/>
       <c r="C38"/>
       <c r="E38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="20.25">
       <c r="B39" s="14"/>
       <c r="C39"/>
       <c r="E39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="20.25">
       <c r="B40" s="14"/>
       <c r="C40"/>
       <c r="E40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="20.25">
       <c r="B41" s="14"/>
       <c r="C41"/>
       <c r="E41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="20.25">
       <c r="B42" s="14"/>
       <c r="C42"/>
       <c r="E42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="20.25">
       <c r="B43" s="14"/>
       <c r="C43"/>
       <c r="E43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="20.25">
       <c r="B44" s="14"/>
       <c r="C44"/>
       <c r="E44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="20.25">
       <c r="B45" s="14"/>
       <c r="C45"/>
       <c r="E45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="20.25">
       <c r="B46" s="14"/>
       <c r="C46"/>
       <c r="E46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="20.25">
       <c r="B47" s="14"/>
       <c r="C47"/>
       <c r="E47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="20.25">
       <c r="B48" s="14"/>
       <c r="C48"/>
       <c r="E48" s="15"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" ht="20.25">
       <c r="B49" s="14"/>
       <c r="C49"/>
       <c r="E49" s="15"/>
       <c r="G49" s="15"/>
     </row>
-    <row r="50" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" ht="20.25">
       <c r="B50" s="14"/>
       <c r="C50"/>
       <c r="E50" s="15"/>
       <c r="G50" s="15"/>
     </row>
-    <row r="51" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" ht="20.25">
       <c r="B51" s="14"/>
       <c r="C51"/>
       <c r="E51" s="15"/>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" ht="20.25">
       <c r="B52" s="14"/>
       <c r="C52"/>
       <c r="E52" s="15"/>
       <c r="G52" s="15"/>
     </row>
-    <row r="53" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" ht="20.25">
       <c r="B53" s="14"/>
       <c r="C53"/>
       <c r="E53" s="15"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" ht="20.25">
       <c r="B54" s="14"/>
       <c r="C54"/>
       <c r="E54" s="15"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" ht="20.25">
       <c r="B55" s="14"/>
       <c r="C55"/>
       <c r="E55" s="15"/>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" ht="20.25">
       <c r="B56" s="14"/>
       <c r="C56"/>
       <c r="E56" s="15"/>
       <c r="G56" s="15"/>
     </row>
-    <row r="57" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" ht="20.25">
       <c r="B57" s="14"/>
       <c r="C57"/>
       <c r="E57" s="15"/>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" ht="20.25">
       <c r="B58" s="14"/>
       <c r="C58"/>
       <c r="E58" s="15"/>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" ht="20.25">
       <c r="B59" s="14"/>
       <c r="C59"/>
       <c r="E59" s="15"/>
       <c r="G59" s="15"/>
     </row>
-    <row r="60" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" ht="20.25">
       <c r="B60" s="14"/>
       <c r="C60"/>
       <c r="E60" s="15"/>
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" ht="20.25">
       <c r="B61" s="14"/>
       <c r="C61"/>
       <c r="E61" s="15"/>
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" ht="20.25">
       <c r="B62" s="14"/>
       <c r="C62"/>
       <c r="E62" s="15"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" ht="20.25">
       <c r="B63" s="14"/>
       <c r="C63"/>
       <c r="E63" s="15"/>
       <c r="G63" s="15"/>
     </row>
-    <row r="64" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" ht="20.25">
       <c r="B64" s="14"/>
       <c r="C64"/>
       <c r="E64" s="15"/>
       <c r="G64" s="15"/>
     </row>
-    <row r="65" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" ht="20.25">
       <c r="B65" s="14"/>
       <c r="C65"/>
       <c r="E65" s="15"/>
       <c r="G65" s="15"/>
     </row>
-    <row r="66" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" ht="20.25">
       <c r="B66" s="14"/>
       <c r="C66"/>
       <c r="E66" s="15"/>
       <c r="G66" s="15"/>
     </row>
-    <row r="67" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" ht="20.25">
       <c r="B67" s="14"/>
       <c r="C67"/>
       <c r="E67" s="15"/>
       <c r="G67" s="15"/>
     </row>
-    <row r="68" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" ht="20.25">
       <c r="B68" s="14"/>
       <c r="C68"/>
       <c r="E68" s="15"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" ht="20.25">
       <c r="B69" s="14"/>
       <c r="C69"/>
       <c r="E69" s="15"/>
       <c r="G69" s="15"/>
     </row>
-    <row r="70" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="20.25">
       <c r="B70" s="14"/>
       <c r="C70"/>
       <c r="E70" s="15"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" ht="20.25">
       <c r="B71" s="14"/>
       <c r="C71"/>
       <c r="E71" s="15"/>
       <c r="G71" s="15"/>
     </row>
-    <row r="72" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" ht="20.25">
       <c r="B72" s="14"/>
       <c r="C72"/>
       <c r="E72" s="15"/>
       <c r="G72" s="15"/>
     </row>
-    <row r="73" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" ht="20.25">
       <c r="B73" s="14"/>
       <c r="C73"/>
       <c r="E73" s="15"/>
       <c r="G73" s="15"/>
     </row>
-    <row r="74" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" ht="20.25">
       <c r="B74" s="14"/>
       <c r="C74"/>
       <c r="E74" s="15"/>
       <c r="G74" s="15"/>
     </row>
-    <row r="75" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" ht="20.25">
       <c r="B75" s="14"/>
       <c r="C75"/>
       <c r="E75" s="15"/>
       <c r="G75" s="15"/>
     </row>
-    <row r="76" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" ht="20.25">
       <c r="B76" s="14"/>
       <c r="C76"/>
       <c r="E76" s="15"/>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" ht="20.25">
       <c r="B77" s="14"/>
       <c r="C77"/>
       <c r="E77" s="15"/>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" ht="20.25">
       <c r="B78" s="14"/>
       <c r="C78"/>
       <c r="E78" s="15"/>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" ht="20.25">
       <c r="B79" s="14"/>
       <c r="C79"/>
       <c r="E79" s="15"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" ht="20.25">
       <c r="B80" s="14"/>
       <c r="C80"/>
       <c r="E80" s="15"/>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" ht="20.25">
       <c r="B81" s="14"/>
       <c r="C81"/>
       <c r="E81" s="15"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" ht="20.25">
       <c r="B82" s="14"/>
       <c r="C82"/>
       <c r="E82" s="15"/>
       <c r="G82" s="15"/>
     </row>
-    <row r="83" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" ht="20.25">
       <c r="B83" s="14"/>
       <c r="C83"/>
       <c r="E83" s="15"/>
       <c r="G83" s="15"/>
     </row>
-    <row r="84" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" ht="20.25">
       <c r="B84" s="14"/>
       <c r="C84"/>
       <c r="E84" s="15"/>
       <c r="G84" s="15"/>
     </row>
-    <row r="85" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" ht="20.25">
       <c r="B85" s="14"/>
       <c r="C85"/>
       <c r="E85" s="15"/>
       <c r="G85" s="15"/>
     </row>
-    <row r="86" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" ht="20.25">
       <c r="B86" s="14"/>
       <c r="C86"/>
       <c r="E86" s="15"/>
       <c r="G86" s="15"/>
     </row>
-    <row r="87" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" ht="20.25">
       <c r="B87" s="14"/>
       <c r="C87"/>
       <c r="E87" s="15"/>
       <c r="G87" s="15"/>
     </row>
-    <row r="88" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" ht="20.25">
       <c r="B88" s="14"/>
       <c r="C88"/>
       <c r="E88" s="15"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" ht="20.25">
       <c r="B89" s="14"/>
       <c r="C89"/>
       <c r="E89" s="15"/>
       <c r="G89" s="15"/>
     </row>
-    <row r="90" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" ht="20.25">
       <c r="B90" s="14"/>
       <c r="C90"/>
       <c r="E90" s="15"/>
       <c r="G90" s="15"/>
     </row>
-    <row r="91" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" ht="20.25">
       <c r="B91" s="14"/>
       <c r="C91"/>
       <c r="E91" s="15"/>
       <c r="G91" s="15"/>
     </row>
-    <row r="92" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" ht="20.25">
       <c r="B92" s="14"/>
       <c r="C92"/>
       <c r="E92" s="15"/>
       <c r="G92" s="15"/>
     </row>
-    <row r="93" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" ht="20.25">
       <c r="B93" s="14"/>
       <c r="C93"/>
       <c r="E93" s="15"/>
       <c r="G93" s="15"/>
     </row>
-    <row r="94" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" ht="20.25">
       <c r="B94" s="14"/>
       <c r="C94"/>
       <c r="E94" s="15"/>
       <c r="G94" s="15"/>
     </row>
-    <row r="95" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" ht="20.25">
       <c r="B95" s="14"/>
       <c r="C95"/>
       <c r="E95" s="15"/>
       <c r="G95" s="15"/>
     </row>
-    <row r="96" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" ht="20.25">
       <c r="B96" s="14"/>
       <c r="C96"/>
       <c r="E96" s="15"/>
       <c r="G96" s="15"/>
     </row>
-    <row r="97" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" ht="20.25">
       <c r="B97" s="14"/>
       <c r="C97"/>
       <c r="E97" s="15"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" ht="20.25">
       <c r="B98" s="14"/>
       <c r="C98"/>
       <c r="E98" s="15"/>
       <c r="G98" s="15"/>
     </row>
-    <row r="99" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" ht="20.25">
       <c r="B99" s="14"/>
       <c r="C99"/>
       <c r="E99" s="15"/>
       <c r="G99" s="15"/>
     </row>
-    <row r="100" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" ht="20.25">
       <c r="B100" s="14"/>
       <c r="C100"/>
       <c r="E100" s="15"/>
       <c r="G100" s="15"/>
     </row>
-    <row r="101" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" ht="20.25">
       <c r="B101" s="14"/>
       <c r="C101"/>
       <c r="E101" s="15"/>
       <c r="G101" s="15"/>
     </row>
-    <row r="102" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" ht="20.25">
       <c r="B102" s="14"/>
       <c r="C102"/>
       <c r="E102" s="15"/>
       <c r="G102" s="15"/>
     </row>
-    <row r="103" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" ht="20.25">
       <c r="B103" s="14"/>
       <c r="C103"/>
       <c r="E103" s="15"/>
       <c r="G103" s="15"/>
     </row>
-    <row r="104" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" ht="20.25">
       <c r="B104" s="14"/>
       <c r="C104"/>
       <c r="E104" s="15"/>
       <c r="G104" s="15"/>
     </row>
-    <row r="105" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" ht="20.25">
       <c r="B105" s="14"/>
       <c r="C105"/>
       <c r="E105" s="15"/>
       <c r="G105" s="15"/>
     </row>
-    <row r="106" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" ht="20.25">
       <c r="B106" s="14"/>
       <c r="C106"/>
       <c r="E106" s="15"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" ht="20.25">
       <c r="B107" s="14"/>
       <c r="C107"/>
       <c r="E107" s="15"/>
       <c r="G107" s="15"/>
     </row>
-    <row r="108" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" ht="20.25">
       <c r="B108" s="14"/>
       <c r="C108"/>
       <c r="E108" s="15"/>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="20.25">
       <c r="B109" s="14"/>
       <c r="C109"/>
       <c r="E109" s="15"/>
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" ht="20.25">
       <c r="B110" s="14"/>
       <c r="C110"/>
       <c r="E110" s="15"/>
       <c r="G110" s="15"/>
     </row>
-    <row r="111" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" ht="20.25">
       <c r="B111" s="14"/>
       <c r="C111"/>
       <c r="E111" s="15"/>
       <c r="G111" s="15"/>
     </row>
-    <row r="112" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" ht="20.25">
       <c r="B112" s="14"/>
       <c r="C112"/>
       <c r="E112" s="15"/>
       <c r="G112" s="15"/>
     </row>
-    <row r="113" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" ht="20.25">
       <c r="B113" s="14"/>
       <c r="C113"/>
       <c r="E113" s="15"/>
       <c r="G113" s="15"/>
     </row>
-    <row r="114" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" ht="20.25">
       <c r="B114" s="14"/>
       <c r="C114"/>
       <c r="E114" s="15"/>
       <c r="G114" s="15"/>
     </row>
-    <row r="115" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" ht="20.25">
       <c r="B115" s="14"/>
       <c r="C115"/>
       <c r="E115" s="15"/>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" ht="20.25">
       <c r="B116" s="14"/>
       <c r="C116"/>
       <c r="E116" s="15"/>
       <c r="G116" s="15"/>
     </row>
-    <row r="117" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" ht="20.25">
       <c r="B117" s="14"/>
       <c r="C117"/>
       <c r="E117" s="15"/>
       <c r="G117" s="15"/>
     </row>
-    <row r="118" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" ht="20.25">
       <c r="B118" s="14"/>
       <c r="C118"/>
       <c r="E118" s="15"/>
       <c r="G118" s="15"/>
     </row>
-    <row r="119" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" ht="20.25">
       <c r="B119" s="14"/>
       <c r="C119"/>
       <c r="E119" s="15"/>
       <c r="G119" s="15"/>
     </row>
-    <row r="120" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" ht="20.25">
       <c r="B120" s="14"/>
       <c r="C120"/>
       <c r="E120" s="15"/>
       <c r="G120" s="15"/>
     </row>
-    <row r="121" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" ht="20.25">
       <c r="B121" s="14"/>
       <c r="C121"/>
       <c r="E121" s="15"/>
       <c r="G121" s="15"/>
     </row>
-    <row r="122" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" ht="20.25">
       <c r="B122" s="14"/>
       <c r="C122"/>
       <c r="E122" s="15"/>
       <c r="G122" s="15"/>
     </row>
-    <row r="123" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" ht="20.25">
       <c r="B123" s="14"/>
       <c r="C123"/>
       <c r="E123" s="15"/>
       <c r="G123" s="15"/>
     </row>
-    <row r="124" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" ht="20.25">
       <c r="B124" s="14"/>
       <c r="C124"/>
       <c r="E124" s="15"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" ht="20.25">
       <c r="B125" s="14"/>
       <c r="C125"/>
       <c r="E125" s="15"/>
       <c r="G125" s="15"/>
     </row>
-    <row r="126" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" ht="20.25">
       <c r="B126" s="14"/>
       <c r="C126"/>
       <c r="E126" s="15"/>
       <c r="G126" s="15"/>
     </row>
-    <row r="127" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" ht="20.25">
       <c r="B127" s="14"/>
       <c r="C127"/>
       <c r="E127" s="15"/>
       <c r="G127" s="15"/>
     </row>
-    <row r="128" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7" ht="20.25">
       <c r="B128" s="14"/>
       <c r="C128"/>
       <c r="E128" s="15"/>
       <c r="G128" s="15"/>
     </row>
-    <row r="129" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7" ht="20.25">
       <c r="B129" s="14"/>
       <c r="C129"/>
       <c r="E129" s="15"/>
       <c r="G129" s="15"/>
     </row>
-    <row r="130" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7" ht="20.25">
       <c r="B130" s="14"/>
       <c r="C130"/>
       <c r="E130" s="15"/>
       <c r="G130" s="15"/>
     </row>
-    <row r="131" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7" ht="20.25">
       <c r="B131" s="14"/>
       <c r="C131"/>
       <c r="E131" s="15"/>
       <c r="G131" s="15"/>
     </row>
-    <row r="132" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7" ht="20.25">
       <c r="B132" s="14"/>
       <c r="C132"/>
       <c r="E132" s="15"/>
       <c r="G132" s="15"/>
     </row>
-    <row r="133" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7" ht="20.25">
       <c r="B133" s="14"/>
       <c r="C133"/>
       <c r="E133" s="15"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7" ht="20.25">
       <c r="B134" s="14"/>
       <c r="C134"/>
       <c r="E134" s="15"/>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7" ht="20.25">
       <c r="B135" s="14"/>
       <c r="C135"/>
       <c r="E135" s="15"/>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7" ht="20.25">
       <c r="B136" s="14"/>
       <c r="C136"/>
       <c r="E136" s="15"/>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7" ht="20.25">
       <c r="B137" s="14"/>
       <c r="C137"/>
       <c r="E137" s="15"/>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7" ht="20.25">
       <c r="B138" s="14"/>
       <c r="C138"/>
       <c r="E138" s="15"/>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" ht="20.25">
       <c r="B139" s="14"/>
       <c r="C139"/>
       <c r="E139" s="15"/>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7" ht="20.25">
       <c r="B140" s="14"/>
       <c r="C140"/>
       <c r="E140" s="15"/>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7" ht="20.25">
       <c r="B141" s="14"/>
       <c r="C141"/>
       <c r="E141" s="15"/>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7" ht="20.25">
       <c r="B142" s="14"/>
       <c r="C142"/>
       <c r="E142" s="15"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7" ht="20.25">
       <c r="B143" s="14"/>
       <c r="C143"/>
       <c r="E143" s="15"/>
       <c r="G143" s="15"/>
     </row>
-    <row r="144" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7" ht="20.25">
       <c r="B144" s="14"/>
       <c r="C144"/>
       <c r="E144" s="15"/>
       <c r="G144" s="15"/>
     </row>
-    <row r="145" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7" ht="20.25">
       <c r="B145" s="14"/>
       <c r="C145"/>
       <c r="E145" s="15"/>
       <c r="G145" s="15"/>
     </row>
-    <row r="146" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7" ht="20.25">
       <c r="B146" s="14"/>
       <c r="C146"/>
       <c r="E146" s="15"/>
       <c r="G146" s="15"/>
     </row>
-    <row r="147" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7" ht="20.25">
       <c r="B147" s="14"/>
       <c r="C147"/>
       <c r="E147" s="15"/>
       <c r="G147" s="15"/>
     </row>
-    <row r="148" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7" ht="20.25">
       <c r="B148" s="14"/>
       <c r="C148"/>
       <c r="E148" s="15"/>
       <c r="G148" s="15"/>
     </row>
-    <row r="149" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7" ht="20.25">
       <c r="B149" s="14"/>
       <c r="C149"/>
       <c r="E149" s="15"/>
       <c r="G149" s="15"/>
     </row>
-    <row r="150" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7" ht="20.25">
       <c r="B150" s="14"/>
       <c r="C150"/>
       <c r="E150" s="15"/>
       <c r="G150" s="15"/>
     </row>
-    <row r="151" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7" ht="20.25">
       <c r="B151" s="14"/>
       <c r="C151"/>
       <c r="E151" s="15"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:7" ht="20.25">
       <c r="B152" s="14"/>
       <c r="C152"/>
       <c r="E152" s="15"/>
       <c r="G152" s="15"/>
     </row>
-    <row r="153" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7" ht="20.25">
       <c r="B153" s="14"/>
       <c r="C153"/>
       <c r="E153" s="15"/>
       <c r="G153" s="15"/>
     </row>
-    <row r="154" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7" ht="20.25">
       <c r="B154" s="14"/>
       <c r="C154"/>
       <c r="E154" s="15"/>
       <c r="G154" s="15"/>
     </row>
-    <row r="155" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7" ht="20.25">
       <c r="B155" s="14"/>
       <c r="C155"/>
       <c r="E155" s="15"/>
       <c r="G155" s="15"/>
     </row>
-    <row r="156" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7" ht="20.25">
       <c r="B156" s="14"/>
       <c r="C156"/>
       <c r="E156" s="15"/>
       <c r="G156" s="15"/>
     </row>
-    <row r="157" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7" ht="20.25">
       <c r="B157" s="14"/>
       <c r="C157"/>
       <c r="E157" s="15"/>
       <c r="F157" s="16"/>
       <c r="G157" s="15"/>
     </row>
-    <row r="158" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7" ht="20.25">
       <c r="B158" s="14"/>
       <c r="C158"/>
       <c r="E158" s="15"/>
       <c r="F158" s="16"/>
       <c r="G158" s="15"/>
     </row>
-    <row r="159" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7" ht="20.25">
       <c r="B159" s="14"/>
       <c r="C159"/>
       <c r="E159" s="15"/>
       <c r="F159" s="16"/>
       <c r="G159" s="15"/>
     </row>
-    <row r="160" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7" ht="20.25">
       <c r="B160" s="14"/>
       <c r="C160"/>
       <c r="E160" s="15"/>
       <c r="F160" s="16"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7" ht="20.25">
       <c r="B161" s="14"/>
       <c r="C161"/>
       <c r="E161" s="15"/>
       <c r="F161" s="16"/>
       <c r="G161" s="15"/>
     </row>
-    <row r="162" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7" ht="20.25">
       <c r="B162" s="14"/>
       <c r="C162"/>
       <c r="E162" s="15"/>
       <c r="F162" s="16"/>
       <c r="G162" s="15"/>
     </row>
-    <row r="163" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7" ht="20.25">
       <c r="B163" s="14"/>
       <c r="C163"/>
       <c r="E163" s="15"/>
       <c r="F163" s="16"/>
       <c r="G163" s="15"/>
     </row>
-    <row r="164" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7" ht="20.25">
       <c r="B164" s="14"/>
       <c r="C164"/>
       <c r="E164" s="15"/>
       <c r="F164" s="16"/>
       <c r="G164" s="15"/>
     </row>
-    <row r="165" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7" ht="20.25">
       <c r="B165" s="14"/>
       <c r="C165"/>
       <c r="E165" s="15"/>
       <c r="F165" s="16"/>
       <c r="G165" s="15"/>
     </row>
-    <row r="166" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7" ht="20.25">
       <c r="B166" s="14"/>
       <c r="C166"/>
       <c r="E166" s="15"/>
       <c r="F166" s="16"/>
       <c r="G166" s="15"/>
     </row>
-    <row r="167" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7" ht="20.25">
       <c r="B167" s="14"/>
       <c r="C167"/>
       <c r="E167" s="15"/>
       <c r="F167" s="16"/>
       <c r="G167" s="15"/>
     </row>
-    <row r="168" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7" ht="20.25">
       <c r="B168" s="14"/>
       <c r="C168"/>
       <c r="E168" s="15"/>
       <c r="F168" s="16"/>
       <c r="G168" s="15"/>
     </row>
-    <row r="169" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7" ht="20.25">
       <c r="B169" s="14"/>
       <c r="C169"/>
       <c r="E169" s="15"/>
       <c r="F169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:7" ht="20.25">
       <c r="B170" s="14"/>
       <c r="C170"/>
       <c r="E170" s="15"/>
       <c r="F170" s="16"/>
       <c r="G170" s="15"/>
     </row>
-    <row r="171" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:7" ht="20.25">
       <c r="B171" s="14"/>
       <c r="C171"/>
       <c r="E171" s="15"/>
       <c r="F171" s="16"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7" ht="20.25">
       <c r="B172" s="14"/>
       <c r="C172"/>
       <c r="E172" s="15"/>
       <c r="F172" s="16"/>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7" ht="20.25">
       <c r="B173" s="14"/>
       <c r="C173"/>
       <c r="E173" s="15"/>
       <c r="F173" s="16"/>
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7" ht="20.25">
       <c r="B174" s="14"/>
       <c r="C174"/>
       <c r="E174" s="15"/>
       <c r="F174" s="16"/>
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7" ht="20.25">
       <c r="B175" s="14"/>
       <c r="C175"/>
       <c r="E175" s="15"/>
       <c r="F175" s="16"/>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7" ht="20.25">
       <c r="B176" s="14"/>
       <c r="C176"/>
       <c r="E176" s="15"/>
       <c r="F176" s="16"/>
       <c r="G176" s="15"/>
     </row>
-    <row r="177" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" ht="20.25">
       <c r="B177" s="14"/>
       <c r="C177"/>
       <c r="E177" s="15"/>
       <c r="F177" s="16"/>
       <c r="G177" s="15"/>
     </row>
-    <row r="178" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" ht="20.25">
       <c r="B178" s="14"/>
       <c r="C178"/>
       <c r="E178" s="15"/>
       <c r="F178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7" ht="20.25">
       <c r="B179" s="14"/>
       <c r="C179"/>
       <c r="E179" s="15"/>
       <c r="F179" s="16"/>
       <c r="G179" s="15"/>
     </row>
-    <row r="180" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7" ht="20.25">
       <c r="B180" s="14"/>
       <c r="C180"/>
       <c r="E180" s="15"/>
       <c r="F180" s="16"/>
       <c r="G180" s="15"/>
     </row>
-    <row r="181" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7" ht="20.25">
       <c r="B181" s="14"/>
       <c r="C181"/>
       <c r="E181" s="15"/>
       <c r="F181" s="16"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7" ht="20.25">
       <c r="B182" s="14"/>
       <c r="C182"/>
       <c r="E182" s="15"/>
       <c r="F182" s="16"/>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7" ht="20.25">
       <c r="B183" s="14"/>
       <c r="C183"/>
       <c r="E183" s="15"/>
       <c r="F183" s="16"/>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7" ht="20.25">
       <c r="B184" s="14"/>
       <c r="C184"/>
       <c r="E184" s="15"/>
       <c r="F184" s="16"/>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7" ht="20.25">
       <c r="B185" s="14"/>
       <c r="C185"/>
       <c r="E185" s="15"/>
       <c r="F185" s="16"/>
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7" ht="20.25">
       <c r="B186" s="14"/>
       <c r="C186"/>
       <c r="E186" s="15"/>
       <c r="F186" s="16"/>
       <c r="G186" s="15"/>
     </row>
-    <row r="187" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" ht="20.25">
       <c r="B187" s="14"/>
       <c r="C187"/>
       <c r="E187" s="15"/>
       <c r="F187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7" ht="20.25">
       <c r="B188" s="14"/>
       <c r="C188"/>
       <c r="E188" s="15"/>
       <c r="F188" s="16"/>
       <c r="G188" s="15"/>
     </row>
-    <row r="189" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7" ht="20.25">
       <c r="B189" s="14"/>
       <c r="C189"/>
       <c r="E189" s="15"/>
       <c r="F189" s="16"/>
       <c r="G189" s="15"/>
     </row>
-    <row r="190" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7" ht="20.25">
       <c r="B190" s="14"/>
       <c r="C190"/>
       <c r="E190" s="15"/>
       <c r="F190" s="16"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7" ht="20.25">
       <c r="B191" s="14"/>
       <c r="C191"/>
       <c r="E191" s="15"/>
       <c r="F191" s="16"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7" ht="20.25">
       <c r="B192" s="14"/>
       <c r="C192"/>
       <c r="E192" s="15"/>
       <c r="F192" s="16"/>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:7" ht="20.25">
       <c r="B193" s="14"/>
       <c r="C193"/>
       <c r="E193" s="15"/>
       <c r="F193" s="16"/>
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:7" ht="20.25">
       <c r="B194" s="14"/>
       <c r="C194"/>
       <c r="E194" s="15"/>
       <c r="F194" s="16"/>
       <c r="G194" s="15"/>
     </row>
-    <row r="195" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:7" ht="20.25">
       <c r="B195" s="14"/>
       <c r="C195"/>
       <c r="E195" s="15"/>
       <c r="F195" s="16"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7" ht="20.25">
       <c r="B196" s="14"/>
       <c r="C196"/>
       <c r="E196" s="15"/>
       <c r="F196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:7" ht="20.25">
       <c r="B197" s="14"/>
       <c r="C197"/>
       <c r="E197" s="15"/>
       <c r="F197" s="16"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:7" ht="20.25">
       <c r="B198" s="14"/>
       <c r="C198"/>
       <c r="E198" s="15"/>
       <c r="F198" s="16"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7" ht="20.25">
       <c r="B199" s="14"/>
       <c r="C199"/>
       <c r="E199" s="15"/>
       <c r="F199" s="16"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7" ht="20.25">
       <c r="B200" s="14"/>
       <c r="C200"/>
       <c r="E200" s="15"/>
       <c r="F200" s="16"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7" ht="20.25">
       <c r="B201" s="14"/>
       <c r="C201"/>
       <c r="E201" s="15"/>
       <c r="F201" s="16"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7" ht="20.25">
       <c r="B202" s="14"/>
       <c r="C202"/>
       <c r="E202" s="15"/>
       <c r="F202" s="16"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7" ht="20.25">
       <c r="B203" s="14"/>
       <c r="C203"/>
       <c r="E203" s="15"/>
       <c r="F203" s="16"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" ht="20.25">
       <c r="B204" s="14"/>
       <c r="C204"/>
       <c r="E204" s="15"/>
       <c r="F204" s="16"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7" ht="20.25">
       <c r="B205" s="14"/>
       <c r="C205"/>
       <c r="E205" s="15"/>
       <c r="F205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7" ht="20.25">
       <c r="B206" s="14"/>
       <c r="C206"/>
       <c r="E206" s="15"/>
       <c r="F206" s="16"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7" ht="20.25">
       <c r="B207" s="14"/>
       <c r="C207"/>
       <c r="E207" s="15"/>
       <c r="F207" s="16"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7" ht="20.25">
       <c r="B208" s="14"/>
       <c r="C208"/>
       <c r="E208" s="15"/>
       <c r="F208" s="16"/>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7" ht="20.25">
       <c r="B209" s="14"/>
       <c r="C209"/>
       <c r="E209" s="15"/>
       <c r="F209" s="16"/>
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:7" ht="20.25">
       <c r="B210" s="14"/>
       <c r="C210"/>
       <c r="E210" s="15"/>
       <c r="F210" s="16"/>
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:7" ht="20.25">
       <c r="B211" s="14"/>
       <c r="C211"/>
       <c r="E211" s="15"/>
       <c r="F211" s="16"/>
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:7" ht="20.25">
       <c r="B212" s="14"/>
       <c r="C212"/>
       <c r="E212" s="15"/>
       <c r="F212" s="16"/>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:7" ht="20.25">
       <c r="B213" s="14"/>
       <c r="C213"/>
       <c r="E213" s="15"/>
       <c r="F213" s="16"/>
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7" ht="20.25">
       <c r="B214" s="14"/>
       <c r="C214"/>
       <c r="E214" s="15"/>
       <c r="F214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:7" ht="20.25">
       <c r="B215" s="14"/>
       <c r="C215"/>
       <c r="E215" s="15"/>
       <c r="F215" s="16"/>
       <c r="G215" s="15"/>
     </row>
-    <row r="216" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:7" ht="20.25">
       <c r="B216" s="14"/>
       <c r="C216"/>
       <c r="E216" s="15"/>
       <c r="F216" s="16"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7" ht="20.25">
       <c r="B217" s="14"/>
       <c r="C217"/>
       <c r="E217" s="15"/>
       <c r="F217" s="16"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7" ht="20.25">
       <c r="B218" s="14"/>
       <c r="C218"/>
       <c r="E218" s="15"/>
       <c r="F218" s="16"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:7" ht="20.25">
       <c r="B219" s="14"/>
       <c r="C219"/>
       <c r="E219" s="15"/>
       <c r="F219" s="16"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:7" ht="20.25">
       <c r="B220" s="14"/>
       <c r="C220"/>
       <c r="E220" s="15"/>
       <c r="F220" s="16"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:7" ht="20.25">
       <c r="B221" s="14"/>
       <c r="C221"/>
       <c r="E221" s="15"/>
       <c r="F221" s="16"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:7" ht="20.25">
       <c r="B222" s="14"/>
       <c r="C222"/>
       <c r="E222" s="15"/>
       <c r="F222" s="16"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:7" ht="20.25">
       <c r="B223" s="14"/>
       <c r="C223"/>
       <c r="E223" s="15"/>
       <c r="F223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:7" ht="20.25">
       <c r="B224" s="14"/>
       <c r="C224"/>
       <c r="E224" s="15"/>
       <c r="F224" s="16"/>
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:7" ht="20.25">
       <c r="B225" s="14"/>
       <c r="C225"/>
       <c r="E225" s="15"/>
       <c r="F225" s="16"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:7" ht="20.25">
       <c r="B226" s="14"/>
       <c r="C226"/>
       <c r="E226" s="15"/>
       <c r="F226" s="16"/>
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7" ht="20.25">
       <c r="B227" s="14"/>
       <c r="C227"/>
       <c r="E227" s="15"/>
       <c r="F227" s="16"/>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:7" ht="20.25">
       <c r="B228" s="14"/>
       <c r="C228"/>
       <c r="E228" s="15"/>
       <c r="F228" s="16"/>
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7" ht="20.25">
       <c r="B229" s="14"/>
       <c r="C229"/>
       <c r="E229" s="15"/>
       <c r="F229" s="16"/>
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7" ht="20.25">
       <c r="B230" s="14"/>
       <c r="C230"/>
       <c r="E230" s="15"/>
       <c r="F230" s="16"/>
       <c r="G230" s="15"/>
     </row>
-    <row r="231" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:7" ht="20.25">
       <c r="B231" s="14"/>
       <c r="C231"/>
       <c r="E231" s="15"/>
       <c r="F231" s="16"/>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7" ht="20.25">
       <c r="B232" s="15"/>
       <c r="C232"/>
       <c r="E232" s="15"/>
       <c r="F232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:7" ht="20.25">
       <c r="B233" s="15"/>
       <c r="C233"/>
       <c r="E233" s="15"/>
       <c r="F233" s="16"/>
       <c r="G233" s="15"/>
     </row>
-    <row r="234" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:7" ht="20.25">
       <c r="B234" s="15"/>
       <c r="C234"/>
       <c r="E234" s="15"/>
       <c r="F234" s="16"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:7" ht="20.25">
       <c r="B235" s="15"/>
       <c r="C235"/>
       <c r="E235" s="15"/>
       <c r="F235" s="16"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:7" ht="20.25">
       <c r="B236" s="15"/>
       <c r="C236"/>
       <c r="E236" s="15"/>
       <c r="F236" s="16"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:7" ht="20.25">
       <c r="B237" s="15"/>
       <c r="C237"/>
       <c r="E237" s="15"/>
       <c r="F237" s="16"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:7" ht="20.25">
       <c r="B238" s="15"/>
       <c r="C238"/>
       <c r="E238" s="15"/>
       <c r="F238" s="16"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:7" ht="20.25">
       <c r="B239" s="15"/>
       <c r="C239"/>
       <c r="E239" s="15"/>
       <c r="F239" s="16"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7" ht="20.25">
       <c r="B240" s="15"/>
       <c r="C240"/>
       <c r="E240" s="15"/>
       <c r="F240" s="16"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7" ht="20.25">
       <c r="B241" s="15"/>
       <c r="C241"/>
       <c r="E241" s="15"/>
       <c r="F241" s="16"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7" ht="20.25">
       <c r="B242" s="15"/>
       <c r="C242"/>
       <c r="E242" s="15"/>
       <c r="F242" s="16"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7" ht="20.25">
       <c r="B243" s="15"/>
       <c r="C243"/>
       <c r="E243" s="15"/>
       <c r="F243" s="16"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7" ht="20.25">
       <c r="B244" s="15"/>
       <c r="C244"/>
       <c r="E244" s="15"/>
       <c r="F244" s="16"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7" ht="20.25">
       <c r="B245" s="15"/>
       <c r="C245"/>
       <c r="E245" s="15"/>
       <c r="F245" s="16"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7" ht="20.25">
       <c r="B246" s="15"/>
       <c r="C246"/>
       <c r="E246" s="15"/>
       <c r="F246" s="16"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7" ht="20.25">
       <c r="B247" s="15"/>
       <c r="C247"/>
       <c r="E247" s="15"/>
       <c r="F247" s="16"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7" ht="20.25">
       <c r="B248" s="15"/>
       <c r="C248"/>
       <c r="E248" s="15"/>
       <c r="F248" s="16"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7" ht="20.25">
       <c r="B249" s="15"/>
       <c r="C249"/>
       <c r="E249" s="15"/>
       <c r="F249" s="16"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7" ht="20.25">
       <c r="B250" s="15"/>
       <c r="C250"/>
       <c r="E250" s="15"/>
       <c r="F250" s="16"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7" ht="20.25">
       <c r="B251" s="15"/>
       <c r="C251"/>
       <c r="E251" s="15"/>
       <c r="F251" s="16"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7" ht="20.25">
       <c r="B252" s="15"/>
       <c r="C252"/>
       <c r="E252" s="15"/>
       <c r="F252" s="16"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7" ht="20.25">
       <c r="B253" s="15"/>
       <c r="C253"/>
       <c r="E253" s="15"/>
       <c r="F253" s="16"/>
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7" ht="20.25">
       <c r="B254" s="15"/>
       <c r="C254"/>
       <c r="E254" s="15"/>
       <c r="F254" s="16"/>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7" ht="20.25">
       <c r="B255" s="15"/>
       <c r="C255"/>
       <c r="E255" s="15"/>
       <c r="F255" s="16"/>
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7" ht="20.25">
       <c r="B256" s="15"/>
       <c r="C256"/>
       <c r="E256" s="15"/>
       <c r="F256" s="16"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7" ht="20.25">
       <c r="B257" s="15"/>
       <c r="C257"/>
       <c r="E257" s="15"/>
       <c r="F257" s="16"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7" ht="20.25">
       <c r="B258" s="15"/>
       <c r="C258"/>
       <c r="E258" s="15"/>
       <c r="F258" s="16"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" ht="20.25">
       <c r="B259" s="15"/>
       <c r="C259"/>
       <c r="E259" s="15"/>
       <c r="F259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" ht="20.25">
       <c r="B260" s="15"/>
       <c r="C260"/>
       <c r="E260" s="15"/>
       <c r="F260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" ht="20.25">
       <c r="B261" s="15"/>
       <c r="C261"/>
       <c r="E261" s="15"/>
       <c r="F261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" ht="20.25">
       <c r="B262" s="15"/>
       <c r="C262"/>
       <c r="E262" s="15"/>
       <c r="F262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" ht="20.25">
       <c r="B263" s="15"/>
       <c r="C263"/>
       <c r="E263" s="15"/>
       <c r="F263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7" ht="20.25">
       <c r="B264" s="15"/>
       <c r="C264"/>
       <c r="E264" s="15"/>
       <c r="F264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" ht="20.25">
       <c r="B265" s="15"/>
       <c r="C265"/>
       <c r="E265" s="15"/>
       <c r="F265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" ht="20.25">
       <c r="B266" s="15"/>
       <c r="C266"/>
       <c r="E266" s="15"/>
       <c r="F266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" ht="20.25">
       <c r="B267" s="15"/>
       <c r="C267"/>
       <c r="E267" s="15"/>
       <c r="F267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" ht="20.25">
       <c r="B268" s="15"/>
       <c r="C268"/>
       <c r="E268" s="15"/>
       <c r="F268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" ht="20.25">
       <c r="B269" s="15"/>
       <c r="C269"/>
       <c r="E269" s="15"/>
       <c r="F269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" ht="20.25">
       <c r="B270" s="15"/>
       <c r="C270"/>
       <c r="E270" s="15"/>
       <c r="F270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" ht="20.25">
       <c r="B271" s="15"/>
       <c r="C271"/>
       <c r="E271" s="15"/>
       <c r="F271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7" ht="20.25">
       <c r="B272" s="15"/>
       <c r="C272"/>
       <c r="E272" s="15"/>
       <c r="F272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:7" ht="20.25">
       <c r="B273" s="15"/>
       <c r="C273"/>
       <c r="E273" s="15"/>
       <c r="F273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:7" ht="20.25">
       <c r="B274" s="15"/>
       <c r="C274"/>
       <c r="E274" s="15"/>
       <c r="F274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:7" ht="20.25">
       <c r="B275" s="15"/>
       <c r="C275"/>
       <c r="E275" s="15"/>
       <c r="F275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:7" ht="20.25">
       <c r="B276" s="15"/>
       <c r="C276"/>
       <c r="E276" s="15"/>
       <c r="F276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:7" ht="20.25">
       <c r="B277" s="15"/>
       <c r="C277"/>
       <c r="E277" s="15"/>
       <c r="F277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:7" ht="20.25">
       <c r="B278" s="15"/>
       <c r="C278"/>
       <c r="E278" s="15"/>
       <c r="F278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:7" ht="20.25">
       <c r="B279" s="15"/>
       <c r="C279"/>
       <c r="E279" s="15"/>
       <c r="F279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:7" ht="20.25">
       <c r="B280" s="15"/>
       <c r="C280"/>
       <c r="E280" s="15"/>
       <c r="F280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:7" ht="20.25">
       <c r="B281" s="15"/>
       <c r="C281"/>
       <c r="E281" s="15"/>
       <c r="F281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:7" ht="20.25">
       <c r="B282" s="15"/>
       <c r="C282"/>
       <c r="E282" s="15"/>
       <c r="F282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:7" ht="20.25">
       <c r="B283" s="15"/>
       <c r="C283"/>
       <c r="E283" s="15"/>
       <c r="F283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:7" ht="20.25">
       <c r="B284" s="15"/>
       <c r="C284"/>
       <c r="E284" s="15"/>
       <c r="F284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:7" ht="20.25">
       <c r="B285" s="15"/>
       <c r="C285"/>
       <c r="E285" s="15"/>
       <c r="F285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:7" ht="20.25">
       <c r="B286" s="15"/>
       <c r="C286"/>
       <c r="E286" s="15"/>
       <c r="F286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:7" ht="20.25">
       <c r="B287" s="15"/>
       <c r="C287"/>
       <c r="E287" s="15"/>
       <c r="F287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:7" ht="20.25">
       <c r="B288" s="15"/>
       <c r="C288"/>
       <c r="E288" s="15"/>
       <c r="F288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:7" ht="20.25">
       <c r="B289" s="15"/>
       <c r="C289"/>
       <c r="E289" s="15"/>
       <c r="F289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:7" ht="20.25">
       <c r="B290" s="15"/>
       <c r="C290"/>
       <c r="E290" s="15"/>
       <c r="F290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:7" ht="20.25">
       <c r="B291" s="15"/>
       <c r="C291"/>
       <c r="E291" s="15"/>
       <c r="F291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:7" ht="20.25">
       <c r="B292" s="15"/>
       <c r="C292"/>
       <c r="E292" s="15"/>
       <c r="F292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:7" ht="20.25">
       <c r="B293" s="15"/>
       <c r="C293"/>
       <c r="E293" s="15"/>
       <c r="F293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:7" ht="20.25">
       <c r="B294" s="15"/>
       <c r="C294"/>
       <c r="E294" s="15"/>
       <c r="F294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:7" ht="20.25">
       <c r="B295" s="15"/>
       <c r="C295"/>
       <c r="E295" s="15"/>
       <c r="F295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:7" ht="20.25">
       <c r="B296" s="15"/>
       <c r="C296"/>
       <c r="E296" s="15"/>
       <c r="F296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:7" ht="20.25">
       <c r="B297" s="15"/>
       <c r="C297"/>
       <c r="E297" s="15"/>
       <c r="F297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:7" ht="20.25">
       <c r="B298" s="15"/>
       <c r="C298"/>
       <c r="E298" s="15"/>
       <c r="F298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:7" ht="20.25">
       <c r="B299" s="15"/>
       <c r="C299"/>
       <c r="E299" s="15"/>
       <c r="F299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:7" ht="20.25">
       <c r="B300" s="15"/>
       <c r="C300"/>
       <c r="E300" s="15"/>
       <c r="F300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:7" ht="20.25">
       <c r="B301" s="15"/>
       <c r="C301"/>
       <c r="E301" s="15"/>
       <c r="F301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:7" ht="20.25">
       <c r="B302" s="15"/>
       <c r="C302"/>
       <c r="E302" s="15"/>
       <c r="F302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:7" ht="20.25">
       <c r="B303" s="15"/>
       <c r="C303"/>
       <c r="E303" s="15"/>
       <c r="F303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:7" ht="20.25">
       <c r="B304" s="15"/>
       <c r="C304"/>
       <c r="E304" s="15"/>
       <c r="F304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:7" ht="20.25">
       <c r="B305" s="15"/>
       <c r="C305"/>
       <c r="E305" s="15"/>
       <c r="F305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:7" ht="20.25">
       <c r="B306" s="15"/>
       <c r="C306"/>
       <c r="E306" s="15"/>
       <c r="F306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:7" ht="20.25">
       <c r="B307" s="15"/>
       <c r="C307"/>
       <c r="E307" s="15"/>
       <c r="F307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:7" ht="20.25">
       <c r="B308" s="15"/>
       <c r="C308"/>
       <c r="E308" s="15"/>
       <c r="F308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:7" ht="20.25">
       <c r="B309" s="15"/>
       <c r="C309"/>
       <c r="E309" s="15"/>
       <c r="F309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:7" ht="20.25">
       <c r="B310" s="15"/>
       <c r="C310"/>
       <c r="E310" s="15"/>
       <c r="F310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:7" ht="20.25">
       <c r="B311" s="15"/>
       <c r="C311"/>
       <c r="E311" s="15"/>
       <c r="F311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:7" ht="20.25">
       <c r="B312" s="15"/>
       <c r="C312"/>
       <c r="E312" s="15"/>
       <c r="F312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:7" ht="20.25">
       <c r="B313" s="15"/>
       <c r="C313"/>
       <c r="E313" s="15"/>
       <c r="F313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:7" ht="20.25">
       <c r="B314" s="15"/>
       <c r="C314"/>
       <c r="E314" s="15"/>
       <c r="F314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:7" ht="20.25">
       <c r="B315" s="15"/>
       <c r="C315"/>
       <c r="E315" s="15"/>
       <c r="F315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:7" ht="20.25">
       <c r="B316" s="15"/>
       <c r="C316"/>
       <c r="E316" s="15"/>
       <c r="F316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:7" ht="20.25">
       <c r="B317" s="15"/>
       <c r="C317"/>
       <c r="E317" s="15"/>
       <c r="F317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:7" ht="20.25">
       <c r="B318" s="15"/>
       <c r="C318"/>
       <c r="E318" s="15"/>
       <c r="F318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:7" ht="20.25">
       <c r="B319" s="15"/>
       <c r="C319"/>
       <c r="E319" s="15"/>
       <c r="F319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:7" ht="20.25">
       <c r="B320" s="15"/>
       <c r="C320"/>
       <c r="E320" s="15"/>
       <c r="F320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:7" ht="20.25">
       <c r="B321" s="15"/>
       <c r="C321"/>
       <c r="E321" s="15"/>
       <c r="F321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:7" ht="20.25">
       <c r="B322" s="15"/>
       <c r="C322"/>
       <c r="E322" s="15"/>
       <c r="F322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:7" ht="20.25">
       <c r="B323" s="15"/>
       <c r="C323"/>
       <c r="E323" s="15"/>
       <c r="F323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:7" ht="20.25">
       <c r="B324" s="15"/>
       <c r="C324"/>
       <c r="E324" s="15"/>
       <c r="F324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:7" ht="20.25">
       <c r="B325" s="15"/>
       <c r="C325"/>
       <c r="E325" s="15"/>
       <c r="F325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:7" ht="20.25">
       <c r="B326" s="15"/>
       <c r="C326"/>
       <c r="E326" s="15"/>
       <c r="F326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:7" ht="20.25">
       <c r="B327" s="15"/>
       <c r="C327"/>
       <c r="E327" s="15"/>
       <c r="F327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:7" ht="20.25">
       <c r="B328" s="15"/>
       <c r="C328"/>
       <c r="E328" s="15"/>
       <c r="F328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:7" ht="20.25">
       <c r="B329" s="15"/>
       <c r="C329"/>
       <c r="E329" s="15"/>
       <c r="F329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:7" ht="20.25">
       <c r="B330" s="15"/>
       <c r="C330"/>
       <c r="E330" s="15"/>
       <c r="F330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:7" ht="20.25">
       <c r="B331" s="15"/>
       <c r="C331"/>
       <c r="E331" s="15"/>
       <c r="F331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:7" ht="20.25">
       <c r="B332" s="15"/>
       <c r="C332"/>
       <c r="E332" s="15"/>
       <c r="F332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:7" ht="20.25">
       <c r="B333" s="15"/>
       <c r="C333"/>
       <c r="E333" s="15"/>
       <c r="F333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:7" ht="20.25">
       <c r="B334" s="15"/>
       <c r="C334"/>
       <c r="E334" s="15"/>
       <c r="F334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:7" ht="20.25">
       <c r="B335" s="15"/>
       <c r="C335"/>
       <c r="E335" s="15"/>
       <c r="F335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:7" ht="20.25">
       <c r="B336" s="15"/>
       <c r="C336"/>
       <c r="E336" s="15"/>
       <c r="F336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:7" ht="20.25">
       <c r="B337" s="15"/>
       <c r="C337"/>
       <c r="E337" s="15"/>
       <c r="F337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:7" ht="20.25">
       <c r="B338" s="15"/>
       <c r="C338"/>
       <c r="E338" s="15"/>
       <c r="F338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:7" ht="20.25">
       <c r="B339" s="15"/>
       <c r="C339"/>
       <c r="E339" s="15"/>
       <c r="F339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:7" ht="20.25">
       <c r="B340" s="15"/>
       <c r="C340"/>
       <c r="E340" s="15"/>
       <c r="F340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:7" ht="20.25">
       <c r="B341" s="15"/>
       <c r="C341"/>
       <c r="E341" s="15"/>
       <c r="F341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:7" ht="20.25">
       <c r="B342" s="15"/>
       <c r="C342"/>
       <c r="E342" s="15"/>
       <c r="F342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:7" ht="20.25">
       <c r="B343" s="15"/>
       <c r="C343"/>
       <c r="E343" s="15"/>
       <c r="F343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:7" ht="20.25">
       <c r="B344" s="15"/>
       <c r="C344"/>
       <c r="E344" s="15"/>
       <c r="F344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:7" ht="20.25">
       <c r="B345" s="15"/>
       <c r="C345"/>
       <c r="E345" s="15"/>
       <c r="F345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:7" ht="20.25">
       <c r="B346" s="15"/>
       <c r="C346"/>
       <c r="E346" s="15"/>
       <c r="F346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:7" ht="20.25">
       <c r="B347" s="15"/>
       <c r="C347"/>
       <c r="E347" s="15"/>
       <c r="F347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:7" ht="20.25">
       <c r="B348" s="15"/>
       <c r="C348"/>
       <c r="E348" s="15"/>
       <c r="F348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:7" ht="20.25">
       <c r="B349" s="15"/>
       <c r="C349"/>
       <c r="E349" s="15"/>
       <c r="F349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:7" ht="20.25">
       <c r="B350" s="15"/>
       <c r="C350"/>
       <c r="E350" s="15"/>
       <c r="F350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:7" ht="20.25">
       <c r="B351" s="15"/>
       <c r="C351"/>
       <c r="E351" s="15"/>
       <c r="F351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:7" ht="20.25">
       <c r="B352" s="15"/>
       <c r="C352"/>
       <c r="E352" s="15"/>
       <c r="F352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:7" ht="20.25">
       <c r="B353" s="15"/>
       <c r="C353"/>
       <c r="E353" s="15"/>
       <c r="F353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:7" ht="20.25">
       <c r="B354" s="15"/>
       <c r="C354"/>
       <c r="E354" s="15"/>
       <c r="F354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:7" ht="20.25">
       <c r="B355" s="15"/>
       <c r="C355"/>
       <c r="E355" s="15"/>
       <c r="F355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:7" ht="20.25">
       <c r="B356" s="15"/>
       <c r="C356"/>
       <c r="E356" s="15"/>
       <c r="F356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:7" ht="20.25">
       <c r="B357" s="15"/>
       <c r="C357"/>
       <c r="E357" s="15"/>
       <c r="F357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:7" ht="20.25">
       <c r="B358" s="15"/>
       <c r="C358"/>
       <c r="E358" s="15"/>
       <c r="F358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:7" ht="20.25">
       <c r="B359" s="15"/>
       <c r="C359"/>
       <c r="E359" s="15"/>
       <c r="F359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:7" ht="20.25">
       <c r="B360" s="15"/>
       <c r="C360"/>
       <c r="E360" s="15"/>
       <c r="F360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:7" ht="20.25">
       <c r="B361" s="15"/>
       <c r="C361"/>
       <c r="E361" s="15"/>
       <c r="F361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:7" ht="20.25">
       <c r="B362" s="15"/>
       <c r="C362"/>
       <c r="E362" s="15"/>
       <c r="F362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:7" ht="20.25">
       <c r="B363" s="15"/>
       <c r="C363"/>
       <c r="E363" s="15"/>
       <c r="F363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:7" ht="20.25">
       <c r="B364" s="15"/>
       <c r="C364"/>
       <c r="E364" s="15"/>
       <c r="F364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:7" ht="20.25">
       <c r="B365" s="15"/>
       <c r="C365"/>
       <c r="E365" s="15"/>
       <c r="F365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:7" ht="20.25">
       <c r="B366" s="15"/>
       <c r="C366"/>
       <c r="E366" s="15"/>
       <c r="F366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:7" ht="20.25">
       <c r="B367" s="15"/>
       <c r="C367"/>
       <c r="E367" s="15"/>
       <c r="F367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:7" ht="20.25">
       <c r="B368" s="15"/>
       <c r="C368"/>
       <c r="E368" s="15"/>
       <c r="F368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:7" ht="20.25">
       <c r="B369" s="15"/>
       <c r="C369"/>
       <c r="E369" s="15"/>
       <c r="F369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:7" ht="20.25">
       <c r="B370" s="15"/>
       <c r="C370"/>
       <c r="E370" s="15"/>
       <c r="F370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:7" ht="20.25">
       <c r="B371" s="15"/>
       <c r="C371"/>
       <c r="E371" s="15"/>
       <c r="F371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:7" ht="20.25">
       <c r="B372" s="15"/>
       <c r="C372"/>
       <c r="E372" s="15"/>
       <c r="F372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:7" ht="20.25">
       <c r="B373" s="15"/>
       <c r="C373"/>
       <c r="E373" s="15"/>
       <c r="F373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:7" ht="20.25">
       <c r="B374" s="15"/>
       <c r="C374"/>
       <c r="E374" s="15"/>
       <c r="F374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:7" ht="20.25">
       <c r="B375" s="15"/>
       <c r="C375"/>
       <c r="E375" s="15"/>
       <c r="F375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:7" ht="20.25">
       <c r="B376" s="15"/>
       <c r="C376"/>
       <c r="E376" s="15"/>
       <c r="F376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:7" ht="20.25">
       <c r="B377" s="15"/>
       <c r="C377"/>
       <c r="E377" s="15"/>
       <c r="F377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:7" ht="20.25">
       <c r="B378" s="15"/>
       <c r="C378"/>
       <c r="E378" s="15"/>
       <c r="F378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:7" ht="20.25">
       <c r="B379" s="15"/>
       <c r="C379"/>
       <c r="E379" s="15"/>
       <c r="F379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:7" ht="20.25">
       <c r="B380" s="15"/>
       <c r="C380"/>
       <c r="E380" s="15"/>
       <c r="F380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:7" ht="20.25">
       <c r="B381" s="15"/>
       <c r="C381"/>
       <c r="E381" s="15"/>
       <c r="F381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:7" ht="20.25">
       <c r="B382" s="15"/>
       <c r="C382"/>
       <c r="E382" s="15"/>
       <c r="F382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:7" ht="20.25">
       <c r="B383" s="15"/>
       <c r="C383"/>
       <c r="E383" s="15"/>
       <c r="F383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:7" ht="20.25">
       <c r="B384" s="15"/>
       <c r="C384"/>
       <c r="E384" s="15"/>
       <c r="F384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:7" ht="20.25">
       <c r="B385" s="15"/>
       <c r="C385"/>
       <c r="E385" s="15"/>
       <c r="F385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:7" ht="20.25">
       <c r="B386" s="15"/>
       <c r="C386"/>
       <c r="E386" s="15"/>
       <c r="F386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:7" ht="20.25">
       <c r="B387" s="15"/>
       <c r="C387"/>
       <c r="E387" s="15"/>
       <c r="F387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:7" ht="20.25">
       <c r="B388" s="15"/>
       <c r="C388"/>
       <c r="E388" s="15"/>
       <c r="F388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:7" ht="20.25">
       <c r="B389" s="15"/>
       <c r="C389"/>
       <c r="E389" s="15"/>
       <c r="F389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:7" ht="20.25">
       <c r="B390" s="15"/>
       <c r="C390"/>
       <c r="E390" s="15"/>
       <c r="F390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:7" ht="20.25">
       <c r="B391" s="15"/>
       <c r="C391"/>
       <c r="E391" s="15"/>
       <c r="F391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:7" ht="20.25">
       <c r="B392" s="15"/>
       <c r="C392"/>
       <c r="E392" s="15"/>
       <c r="F392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:7" ht="20.25">
       <c r="B393" s="15"/>
       <c r="C393"/>
       <c r="E393" s="15"/>
       <c r="F393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:7" ht="20.25">
       <c r="B394" s="15"/>
       <c r="C394"/>
       <c r="E394" s="15"/>
       <c r="F394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:7" ht="20.25">
       <c r="B395" s="15"/>
       <c r="C395"/>
       <c r="E395" s="15"/>
       <c r="F395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:7" ht="20.25">
       <c r="B396" s="15"/>
       <c r="C396"/>
       <c r="E396" s="15"/>
       <c r="F396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:7" ht="20.25">
       <c r="B397" s="15"/>
       <c r="C397"/>
       <c r="E397" s="15"/>
       <c r="F397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:7" ht="20.25">
       <c r="B398" s="15"/>
       <c r="C398"/>
       <c r="E398" s="15"/>
       <c r="F398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:7" ht="20.25">
       <c r="B399" s="15"/>
       <c r="C399"/>
       <c r="E399" s="15"/>
       <c r="F399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:7" ht="20.25">
       <c r="B400" s="15"/>
       <c r="C400"/>
       <c r="E400" s="15"/>
       <c r="F400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:7" ht="20.25">
       <c r="B401" s="15"/>
       <c r="C401"/>
       <c r="E401" s="15"/>
       <c r="F401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:7" ht="20.25">
       <c r="B402" s="15"/>
       <c r="C402"/>
       <c r="E402" s="15"/>
       <c r="F402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:7" ht="20.25">
       <c r="B403" s="15"/>
       <c r="C403"/>
       <c r="E403" s="15"/>
       <c r="F403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:7" ht="20.25">
       <c r="B404" s="15"/>
       <c r="C404"/>
       <c r="E404" s="15"/>
       <c r="F404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:7" ht="20.25">
       <c r="B405" s="15"/>
       <c r="C405"/>
       <c r="E405" s="15"/>
       <c r="F405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:7" ht="20.25">
       <c r="B406" s="15"/>
       <c r="C406"/>
       <c r="E406" s="15"/>
       <c r="F406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:7" ht="20.25">
       <c r="B407" s="15"/>
       <c r="C407"/>
       <c r="E407" s="15"/>
       <c r="F407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:7" ht="20.25">
       <c r="B408" s="15"/>
       <c r="C408"/>
       <c r="E408" s="15"/>
       <c r="F408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:7" ht="20.25">
       <c r="B409" s="15"/>
       <c r="C409"/>
       <c r="E409" s="15"/>
       <c r="F409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:7" ht="20.25">
       <c r="B410" s="15"/>
       <c r="C410"/>
       <c r="E410" s="15"/>
       <c r="F410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:7" ht="20.25">
       <c r="B411" s="15"/>
       <c r="C411"/>
       <c r="E411" s="15"/>
       <c r="F411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:7" ht="20.25">
       <c r="B412" s="15"/>
       <c r="C412"/>
       <c r="E412" s="15"/>
       <c r="F412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:7" ht="20.25">
       <c r="B413" s="15"/>
       <c r="C413"/>
       <c r="E413" s="15"/>
       <c r="F413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:7" ht="20.25">
       <c r="B414" s="15"/>
       <c r="C414"/>
       <c r="E414" s="15"/>
       <c r="F414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:7" ht="20.25">
       <c r="B415" s="15"/>
       <c r="C415"/>
       <c r="E415" s="15"/>
       <c r="F415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:7" ht="20.25">
       <c r="B416" s="15"/>
       <c r="C416"/>
       <c r="E416" s="15"/>
       <c r="F416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:7" ht="20.25">
       <c r="B417" s="15"/>
       <c r="C417"/>
       <c r="E417" s="15"/>
       <c r="F417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:7" ht="20.25">
       <c r="B418" s="15"/>
       <c r="C418"/>
       <c r="E418" s="15"/>
       <c r="F418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:7" ht="20.25">
       <c r="B419" s="15"/>
       <c r="C419"/>
       <c r="E419" s="15"/>
       <c r="F419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:7" ht="20.25">
       <c r="B420" s="15"/>
       <c r="C420"/>
       <c r="E420" s="15"/>
       <c r="F420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:7" ht="20.25">
       <c r="B421" s="15"/>
       <c r="C421"/>
       <c r="E421" s="15"/>
       <c r="F421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:7" ht="20.25">
       <c r="B422" s="15"/>
       <c r="C422"/>
       <c r="E422" s="15"/>
       <c r="F422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:7" ht="20.25">
       <c r="B423" s="15"/>
       <c r="C423"/>
       <c r="E423" s="15"/>
       <c r="F423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:7" ht="20.25">
       <c r="B424" s="15"/>
       <c r="C424"/>
       <c r="E424" s="15"/>
       <c r="F424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:7" ht="20.25">
       <c r="B425" s="15"/>
       <c r="C425"/>
       <c r="E425" s="15"/>
       <c r="F425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:7" ht="20.25">
       <c r="B426" s="15"/>
       <c r="C426"/>
       <c r="E426" s="15"/>
       <c r="F426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:7" ht="20.25">
       <c r="B427" s="15"/>
       <c r="C427"/>
       <c r="E427" s="15"/>
       <c r="F427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:7" ht="20.25">
       <c r="B428" s="15"/>
       <c r="C428"/>
       <c r="E428" s="15"/>
       <c r="F428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:7" ht="20.25">
       <c r="B429" s="15"/>
       <c r="C429"/>
       <c r="E429" s="15"/>
       <c r="F429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:7" ht="20.25">
       <c r="B430" s="15"/>
       <c r="C430"/>
       <c r="E430" s="15"/>
       <c r="F430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:7" ht="20.25">
       <c r="B431" s="15"/>
       <c r="C431"/>
       <c r="E431" s="15"/>
       <c r="F431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:7" ht="20.25">
       <c r="B432" s="15"/>
       <c r="C432"/>
       <c r="E432" s="15"/>
       <c r="F432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:7" ht="20.25">
       <c r="B433" s="15"/>
       <c r="C433"/>
       <c r="E433" s="15"/>
       <c r="F433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:7" ht="20.25">
       <c r="B434" s="15"/>
       <c r="C434"/>
       <c r="E434" s="15"/>
       <c r="F434" s="16"/>
       <c r="G434" s="15"/>
     </row>
-    <row r="435" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:7" ht="20.25">
       <c r="B435" s="15"/>
       <c r="C435"/>
       <c r="E435" s="15"/>
       <c r="F435" s="16"/>
       <c r="G435" s="15"/>
     </row>
-    <row r="436" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:7" ht="20.25">
       <c r="B436" s="15"/>
       <c r="C436"/>
       <c r="E436" s="15"/>
       <c r="F436" s="16"/>
       <c r="G436" s="15"/>
     </row>
-    <row r="437" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:7" ht="20.25">
       <c r="B437" s="15"/>
       <c r="C437"/>
       <c r="E437" s="15"/>
       <c r="F437" s="16"/>
       <c r="G437" s="15"/>
     </row>
-    <row r="438" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:7" ht="20.25">
       <c r="B438" s="15"/>
       <c r="C438"/>
       <c r="E438" s="15"/>
       <c r="F438" s="16"/>
       <c r="G438" s="15"/>
     </row>
-    <row r="439" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:7" ht="20.25">
       <c r="B439" s="15"/>
       <c r="C439"/>
       <c r="E439" s="15"/>
       <c r="F439" s="16"/>
       <c r="G439" s="15"/>
     </row>
-    <row r="440" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:7" ht="20.25">
       <c r="B440" s="15"/>
       <c r="C440"/>
       <c r="E440" s="15"/>
       <c r="F440" s="16"/>
       <c r="G440" s="15"/>
     </row>
-    <row r="441" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:7" ht="20.25">
       <c r="B441" s="15"/>
       <c r="C441"/>
       <c r="E441" s="15"/>
       <c r="F441" s="16"/>
       <c r="G441" s="15"/>
     </row>
-    <row r="442" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:7" ht="20.25">
       <c r="B442" s="15"/>
       <c r="C442"/>
       <c r="E442" s="15"/>
       <c r="F442" s="16"/>
       <c r="G442" s="15"/>
     </row>
-    <row r="443" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:7" ht="20.25">
       <c r="B443" s="15"/>
       <c r="C443"/>
       <c r="E443" s="15"/>
       <c r="F443" s="16"/>
       <c r="G443" s="15"/>
     </row>
-    <row r="444" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:7" ht="20.25">
       <c r="B444" s="15"/>
       <c r="C444"/>
       <c r="E444" s="15"/>
       <c r="F444" s="16"/>
       <c r="G444" s="15"/>
     </row>
-    <row r="445" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:7" ht="20.25">
       <c r="B445" s="15"/>
       <c r="C445"/>
       <c r="E445" s="15"/>
       <c r="F445" s="16"/>
       <c r="G445" s="15"/>
     </row>
-    <row r="446" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:7" ht="20.25">
       <c r="B446" s="15"/>
       <c r="C446"/>
       <c r="E446" s="15"/>
       <c r="F446" s="16"/>
       <c r="G446" s="15"/>
     </row>
-    <row r="447" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:7" ht="20.25">
       <c r="B447" s="15"/>
       <c r="C447"/>
       <c r="E447" s="15"/>
       <c r="F447" s="16"/>
       <c r="G447" s="15"/>
     </row>
-    <row r="448" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:7" ht="20.25">
       <c r="B448" s="15"/>
       <c r="C448"/>
       <c r="E448" s="15"/>
       <c r="F448" s="16"/>
       <c r="G448" s="15"/>
     </row>
-    <row r="449" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:7" ht="20.25">
       <c r="B449" s="15"/>
       <c r="C449"/>
       <c r="E449" s="15"/>
       <c r="F449" s="16"/>
       <c r="G449" s="15"/>
     </row>
-    <row r="450" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:7" ht="20.25">
       <c r="B450" s="15"/>
       <c r="C450"/>
       <c r="E450" s="15"/>
       <c r="F450" s="16"/>
       <c r="G450" s="15"/>
     </row>
-    <row r="451" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:7" ht="20.25">
       <c r="B451" s="15"/>
       <c r="C451"/>
       <c r="E451" s="15"/>
       <c r="F451" s="16"/>
       <c r="G451" s="15"/>
     </row>
-    <row r="452" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:7" ht="20.25">
       <c r="B452" s="15"/>
       <c r="C452"/>
       <c r="E452" s="15"/>
       <c r="F452" s="16"/>
       <c r="G452" s="15"/>
     </row>
-    <row r="453" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:7" ht="20.25">
       <c r="B453" s="15"/>
       <c r="C453"/>
       <c r="E453" s="15"/>
       <c r="F453" s="16"/>
       <c r="G453" s="15"/>
     </row>
-    <row r="454" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:7" ht="20.25">
       <c r="B454" s="15"/>
       <c r="C454"/>
       <c r="E454" s="15"/>
       <c r="F454" s="16"/>
       <c r="G454" s="15"/>
     </row>
-    <row r="455" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:7" ht="20.25">
       <c r="B455" s="15"/>
       <c r="C455"/>
       <c r="E455" s="15"/>
       <c r="F455" s="16"/>
       <c r="G455" s="15"/>
     </row>
-    <row r="456" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:7" ht="20.25">
       <c r="B456" s="15"/>
       <c r="C456"/>
       <c r="E456" s="15"/>
       <c r="F456" s="16"/>
       <c r="G456" s="15"/>
     </row>
-    <row r="457" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:7" ht="20.25">
       <c r="B457" s="15"/>
       <c r="C457"/>
       <c r="E457" s="15"/>
       <c r="F457" s="16"/>
       <c r="G457" s="15"/>
     </row>
-    <row r="458" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:7" ht="20.25">
       <c r="B458" s="15"/>
       <c r="C458"/>
       <c r="E458" s="15"/>
       <c r="F458" s="16"/>
       <c r="G458" s="15"/>
     </row>
-    <row r="459" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:7" ht="20.25">
       <c r="B459" s="15"/>
       <c r="C459"/>
       <c r="E459" s="15"/>
       <c r="F459" s="16"/>
       <c r="G459" s="15"/>
     </row>
-    <row r="460" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:7" ht="20.25">
       <c r="B460" s="15"/>
       <c r="C460"/>
       <c r="E460" s="15"/>
       <c r="F460" s="16"/>
       <c r="G460" s="15"/>
     </row>
-    <row r="461" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:7" ht="20.25">
       <c r="B461" s="15"/>
       <c r="C461"/>
       <c r="E461" s="15"/>
       <c r="F461" s="16"/>
       <c r="G461" s="15"/>
     </row>
-    <row r="462" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:7" ht="20.25">
       <c r="B462" s="15"/>
       <c r="C462"/>
       <c r="E462" s="15"/>
       <c r="F462" s="16"/>
       <c r="G462" s="15"/>
     </row>
-    <row r="463" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:7" ht="20.25">
       <c r="B463" s="15"/>
       <c r="C463"/>
       <c r="E463" s="15"/>
       <c r="F463" s="16"/>
       <c r="G463" s="15"/>
     </row>
-    <row r="464" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:7" ht="20.25">
       <c r="B464" s="15"/>
       <c r="C464"/>
       <c r="E464" s="15"/>
       <c r="F464" s="16"/>
       <c r="G464" s="15"/>
     </row>
-    <row r="465" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:7" ht="20.25">
       <c r="B465" s="15"/>
       <c r="C465"/>
       <c r="E465" s="15"/>
       <c r="F465" s="16"/>
       <c r="G465" s="15"/>
     </row>
-    <row r="466" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:7" ht="20.25">
       <c r="B466" s="15"/>
       <c r="C466"/>
       <c r="E466" s="15"/>
       <c r="F466" s="16"/>
       <c r="G466" s="15"/>
     </row>
-    <row r="467" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:7" ht="20.25">
       <c r="B467" s="15"/>
       <c r="C467"/>
       <c r="E467" s="15"/>
       <c r="F467" s="16"/>
       <c r="G467" s="15"/>
     </row>
-    <row r="468" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:7" ht="20.25">
       <c r="B468" s="15"/>
       <c r="C468"/>
       <c r="E468" s="15"/>
       <c r="F468" s="16"/>
       <c r="G468" s="15"/>
     </row>
-    <row r="469" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:7" ht="20.25">
       <c r="B469" s="15"/>
       <c r="C469"/>
       <c r="E469" s="15"/>
       <c r="F469" s="16"/>
       <c r="G469" s="15"/>
     </row>
-    <row r="470" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:7" ht="20.25">
       <c r="B470" s="15"/>
       <c r="C470"/>
       <c r="E470" s="15"/>
       <c r="F470" s="16"/>
       <c r="G470" s="15"/>
     </row>
-    <row r="471" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:7" ht="20.25">
       <c r="B471" s="15"/>
       <c r="C471"/>
       <c r="E471" s="15"/>
       <c r="F471" s="16"/>
       <c r="G471" s="15"/>
     </row>
-    <row r="472" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:7" ht="20.25">
       <c r="B472" s="15"/>
       <c r="C472"/>
       <c r="E472" s="15"/>
       <c r="F472" s="16"/>
       <c r="G472" s="15"/>
     </row>
-    <row r="473" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:7" ht="20.25">
       <c r="B473" s="15"/>
       <c r="C473"/>
       <c r="E473" s="15"/>
       <c r="F473" s="16"/>
       <c r="G473" s="15"/>
     </row>
-    <row r="474" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:7" ht="20.25">
       <c r="B474" s="15"/>
       <c r="C474"/>
       <c r="E474" s="15"/>
       <c r="F474" s="16"/>
       <c r="G474" s="15"/>
     </row>
-    <row r="475" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:7" ht="20.25">
       <c r="B475" s="15"/>
       <c r="C475"/>
       <c r="E475" s="15"/>
       <c r="F475" s="16"/>
       <c r="G475" s="15"/>
     </row>
-    <row r="476" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:7" ht="20.25">
       <c r="B476" s="15"/>
       <c r="C476"/>
       <c r="E476" s="15"/>
       <c r="F476" s="16"/>
       <c r="G476" s="15"/>
     </row>
-    <row r="477" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:7" ht="20.25">
       <c r="B477" s="15"/>
       <c r="C477"/>
       <c r="E477" s="15"/>
       <c r="F477" s="16"/>
       <c r="G477" s="15"/>
     </row>
-    <row r="478" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:7" ht="20.25">
       <c r="B478" s="15"/>
       <c r="C478"/>
       <c r="E478" s="15"/>
       <c r="F478" s="16"/>
       <c r="G478" s="15"/>
     </row>
-    <row r="479" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:7" ht="20.25">
       <c r="B479" s="15"/>
       <c r="C479"/>
       <c r="E479" s="15"/>
       <c r="F479" s="16"/>
       <c r="G479" s="15"/>
     </row>
-    <row r="480" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:7" ht="20.25">
       <c r="B480" s="15"/>
       <c r="C480"/>
       <c r="E480" s="15"/>
       <c r="F480" s="16"/>
       <c r="G480" s="15"/>
     </row>
-    <row r="481" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:7" ht="20.25">
       <c r="B481" s="15"/>
       <c r="C481"/>
       <c r="E481" s="15"/>
       <c r="F481" s="16"/>
       <c r="G481" s="15"/>
     </row>
-    <row r="482" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:7" ht="20.25">
       <c r="B482" s="15"/>
       <c r="C482"/>
       <c r="E482" s="15"/>
       <c r="F482" s="16"/>
       <c r="G482" s="15"/>
     </row>
-    <row r="483" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:7" ht="20.25">
       <c r="B483" s="15"/>
       <c r="C483"/>
       <c r="E483" s="15"/>
       <c r="F483" s="16"/>
       <c r="G483" s="15"/>
     </row>
-    <row r="484" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:7" ht="20.25">
       <c r="B484" s="15"/>
       <c r="C484"/>
       <c r="E484" s="15"/>
       <c r="F484" s="16"/>
       <c r="G484" s="15"/>
     </row>
-    <row r="485" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:7" ht="20.25">
       <c r="B485" s="15"/>
       <c r="C485"/>
       <c r="E485" s="15"/>
       <c r="F485" s="16"/>
       <c r="G485" s="15"/>
     </row>
-    <row r="486" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:7" ht="20.25">
       <c r="B486" s="15"/>
       <c r="C486"/>
       <c r="E486" s="15"/>
       <c r="F486" s="16"/>
       <c r="G486" s="15"/>
     </row>
-    <row r="487" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:7" ht="20.25">
       <c r="B487" s="15"/>
       <c r="C487"/>
       <c r="E487" s="15"/>
       <c r="F487" s="16"/>
       <c r="G487" s="15"/>
     </row>
-    <row r="488" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:7" ht="20.25">
       <c r="B488" s="15"/>
       <c r="C488"/>
       <c r="E488" s="15"/>
       <c r="F488" s="16"/>
       <c r="G488" s="15"/>
     </row>
-    <row r="489" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:7" ht="20.25">
       <c r="B489" s="15"/>
       <c r="C489"/>
       <c r="E489" s="15"/>
       <c r="F489" s="16"/>
       <c r="G489" s="15"/>
     </row>
-    <row r="490" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:7" ht="20.25">
       <c r="B490" s="15"/>
       <c r="C490"/>
       <c r="E490" s="15"/>
       <c r="F490" s="16"/>
       <c r="G490" s="15"/>
     </row>
-    <row r="491" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:7" ht="20.25">
       <c r="B491" s="15"/>
       <c r="C491"/>
       <c r="E491" s="15"/>
       <c r="F491" s="16"/>
       <c r="G491" s="15"/>
     </row>
-    <row r="492" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:7" ht="20.25">
       <c r="B492" s="15"/>
       <c r="C492"/>
       <c r="E492" s="15"/>
       <c r="F492" s="16"/>
       <c r="G492" s="15"/>
     </row>
-    <row r="493" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:7" ht="20.25">
       <c r="B493" s="15"/>
       <c r="C493"/>
       <c r="E493" s="15"/>
       <c r="F493" s="16"/>
       <c r="G493" s="15"/>
     </row>
-    <row r="494" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:7" ht="20.25">
       <c r="B494" s="15"/>
       <c r="C494"/>
       <c r="E494" s="15"/>
       <c r="F494" s="16"/>
       <c r="G494" s="15"/>
     </row>
-    <row r="495" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:7" ht="20.25">
       <c r="B495" s="15"/>
       <c r="C495"/>
       <c r="E495" s="15"/>
       <c r="F495" s="16"/>
       <c r="G495" s="15"/>
     </row>
-    <row r="496" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:7" ht="20.25">
       <c r="B496" s="15"/>
       <c r="C496"/>
       <c r="E496" s="15"/>
       <c r="F496" s="16"/>
       <c r="G496" s="15"/>
     </row>
-    <row r="497" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:7" ht="20.25">
       <c r="B497" s="15"/>
       <c r="C497"/>
       <c r="E497" s="15"/>
       <c r="F497" s="16"/>
       <c r="G497" s="15"/>
     </row>
-    <row r="498" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:7" ht="20.25">
       <c r="B498" s="15"/>
       <c r="C498"/>
       <c r="E498" s="15"/>
       <c r="F498" s="16"/>
       <c r="G498" s="15"/>
     </row>
-    <row r="499" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:7" ht="20.25">
       <c r="B499" s="15"/>
       <c r="C499"/>
       <c r="E499" s="15"/>
       <c r="F499" s="16"/>
       <c r="G499" s="15"/>
     </row>
-    <row r="500" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:7" ht="20.25">
       <c r="B500" s="15"/>
       <c r="C500"/>
       <c r="E500" s="15"/>
       <c r="F500" s="16"/>
       <c r="G500" s="15"/>
     </row>
-    <row r="501" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:7" ht="20.25">
       <c r="B501" s="15"/>
       <c r="C501"/>
       <c r="E501" s="15"/>
@@ -8316,7 +7955,7 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
